--- a/Nilai Gbest Data Edit Pop1.xlsx
+++ b/Nilai Gbest Data Edit Pop1.xlsx
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4135583054621212</v>
+        <v>0.5108914288559401</v>
       </c>
     </row>
   </sheetData>

--- a/Nilai Gbest Data Edit Pop1.xlsx
+++ b/Nilai Gbest Data Edit Pop1.xlsx
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5108914288559401</v>
+        <v>0.547191127694859</v>
       </c>
     </row>
   </sheetData>

--- a/Nilai Gbest Data Edit Pop1.xlsx
+++ b/Nilai Gbest Data Edit Pop1.xlsx
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.547191127694859</v>
+        <v>0.5468179933665007</v>
       </c>
     </row>
   </sheetData>
